--- a/src/test/resources/testdata/seller6.xlsx
+++ b/src/test/resources/testdata/seller6.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="210">
   <si>
     <t>Run Time    :</t>
   </si>
@@ -625,12 +625,37 @@
   </si>
   <si>
     <t>A1ZMFNQV00NNAZ</t>
+  </si>
+  <si>
+    <t>30/10--0:29</t>
+  </si>
+  <si>
+    <t>30/10--8:1</t>
+  </si>
+  <si>
+    <t>30/10--15:29</t>
+  </si>
+  <si>
+    <t>30/10--22:50</t>
+  </si>
+  <si>
+    <t>31/10--11:6</t>
+  </si>
+  <si>
+    <t>1/11--21:6</t>
+  </si>
+  <si>
+    <t>2/11--18:23</t>
+  </si>
+  <si>
+    <t>3/11--8:13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,12 +683,22 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -678,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -697,6 +732,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,22 +1013,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="34.5703125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.7109375"/>
+    <col min="3" max="17" customWidth="true" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
+      <c r="B1" s="2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,6 +1039,30 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>209</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1074,6 +1135,30 @@
       <c r="B11" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C11" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1122,6 +1207,30 @@
       <c r="B17" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C17" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1154,6 +1263,30 @@
       <c r="B21" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C21" t="n" s="0">
+        <v>22.22</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>22.22</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>22.22</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>22.22</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>22.22</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>22.22</v>
+      </c>
+      <c r="I21" t="n" s="0">
+        <v>22.22</v>
+      </c>
+      <c r="J21" t="n" s="0">
+        <v>22.22</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1178,6 +1311,30 @@
       <c r="B24" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C24" t="n" s="0">
+        <v>21.68</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>21.68</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>21.68</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>21.68</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>21.68</v>
+      </c>
+      <c r="H24" t="n" s="0">
+        <v>21.68</v>
+      </c>
+      <c r="I24" t="n" s="0">
+        <v>21.68</v>
+      </c>
+      <c r="J24" t="n" s="0">
+        <v>21.68</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -1194,6 +1351,30 @@
       <c r="B26" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C26" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="G26" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="H26" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="I26" t="n" s="8">
+        <v>32.9</v>
+      </c>
+      <c r="J26" t="n" s="0">
+        <v>32.9</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -1218,6 +1399,30 @@
       <c r="B29" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C29" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G29" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H29" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I29" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="J29" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -1234,6 +1439,30 @@
       <c r="B31" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C31" t="n" s="0">
+        <v>19.9</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>19.9</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>19.9</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>19.9</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>19.9</v>
+      </c>
+      <c r="H31" t="n" s="0">
+        <v>19.9</v>
+      </c>
+      <c r="I31" t="n" s="0">
+        <v>19.9</v>
+      </c>
+      <c r="J31" t="n" s="0">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1346,6 +1575,30 @@
       <c r="B45" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C45" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="E45" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="F45" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="G45" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="H45" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="I45" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="J45" t="n" s="0">
+        <v>32.0</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -1410,6 +1663,30 @@
       <c r="B53" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C53" t="n" s="0">
+        <v>31.05</v>
+      </c>
+      <c r="D53" t="n" s="0">
+        <v>31.05</v>
+      </c>
+      <c r="E53" t="n" s="0">
+        <v>31.05</v>
+      </c>
+      <c r="F53" t="n" s="0">
+        <v>31.05</v>
+      </c>
+      <c r="G53" t="n" s="0">
+        <v>31.05</v>
+      </c>
+      <c r="H53" t="n" s="0">
+        <v>31.05</v>
+      </c>
+      <c r="I53" t="n" s="0">
+        <v>31.05</v>
+      </c>
+      <c r="J53" t="n" s="0">
+        <v>31.05</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -1426,6 +1703,30 @@
       <c r="B55" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C55" t="n" s="0">
+        <v>30.9</v>
+      </c>
+      <c r="D55" t="n" s="0">
+        <v>30.9</v>
+      </c>
+      <c r="E55" t="n" s="0">
+        <v>30.9</v>
+      </c>
+      <c r="F55" t="n" s="0">
+        <v>30.9</v>
+      </c>
+      <c r="G55" t="n" s="0">
+        <v>30.9</v>
+      </c>
+      <c r="H55" t="n" s="0">
+        <v>30.9</v>
+      </c>
+      <c r="I55" t="n" s="0">
+        <v>30.9</v>
+      </c>
+      <c r="J55" t="n" s="0">
+        <v>30.9</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -1562,6 +1863,30 @@
       <c r="B72" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C72" t="n" s="0">
+        <v>18.99</v>
+      </c>
+      <c r="D72" t="n" s="0">
+        <v>18.99</v>
+      </c>
+      <c r="E72" t="n" s="0">
+        <v>18.99</v>
+      </c>
+      <c r="F72" t="n" s="0">
+        <v>18.99</v>
+      </c>
+      <c r="G72" t="n" s="0">
+        <v>18.99</v>
+      </c>
+      <c r="H72" t="n" s="0">
+        <v>18.99</v>
+      </c>
+      <c r="I72" t="n" s="0">
+        <v>18.99</v>
+      </c>
+      <c r="J72" t="n" s="0">
+        <v>18.99</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -1626,6 +1951,30 @@
       <c r="B80" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C80" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D80" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="E80" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="F80" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="G80" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="H80" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="I80" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="J80" t="n" s="0">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -1634,6 +1983,30 @@
       <c r="B81" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C81" t="n" s="0">
+        <v>32.47</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>32.47</v>
+      </c>
+      <c r="E81" t="n" s="0">
+        <v>32.47</v>
+      </c>
+      <c r="F81" t="n" s="0">
+        <v>32.47</v>
+      </c>
+      <c r="G81" t="n" s="0">
+        <v>32.47</v>
+      </c>
+      <c r="H81" t="n" s="0">
+        <v>32.47</v>
+      </c>
+      <c r="I81" t="n" s="0">
+        <v>32.47</v>
+      </c>
+      <c r="J81" t="n" s="0">
+        <v>32.47</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -1706,6 +2079,30 @@
       <c r="B90" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C90" t="n" s="0">
+        <v>20.19</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>20.19</v>
+      </c>
+      <c r="E90" t="n" s="0">
+        <v>20.19</v>
+      </c>
+      <c r="F90" t="n" s="0">
+        <v>20.19</v>
+      </c>
+      <c r="G90" t="n" s="0">
+        <v>20.19</v>
+      </c>
+      <c r="H90" t="n" s="0">
+        <v>20.19</v>
+      </c>
+      <c r="I90" t="n" s="0">
+        <v>20.19</v>
+      </c>
+      <c r="J90" t="n" s="0">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
@@ -1730,6 +2127,30 @@
       <c r="B93" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C93" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="D93" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="E93" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="F93" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="G93" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="H93" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="I93" t="n" s="0">
+        <v>22.9</v>
+      </c>
+      <c r="J93" t="n" s="0">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -1810,6 +2231,30 @@
       <c r="B103" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C103" t="n" s="0">
+        <v>21.99</v>
+      </c>
+      <c r="D103" t="n" s="0">
+        <v>21.99</v>
+      </c>
+      <c r="E103" t="n" s="0">
+        <v>21.99</v>
+      </c>
+      <c r="F103" t="n" s="0">
+        <v>21.99</v>
+      </c>
+      <c r="G103" t="n" s="0">
+        <v>21.99</v>
+      </c>
+      <c r="H103" t="n" s="0">
+        <v>21.99</v>
+      </c>
+      <c r="I103" t="n" s="0">
+        <v>21.99</v>
+      </c>
+      <c r="J103" t="n" s="0">
+        <v>21.99</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -2066,6 +2511,30 @@
       <c r="B135" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C135" t="n" s="0">
+        <v>18.81</v>
+      </c>
+      <c r="D135" t="n" s="0">
+        <v>18.81</v>
+      </c>
+      <c r="E135" t="n" s="0">
+        <v>18.81</v>
+      </c>
+      <c r="F135" t="n" s="0">
+        <v>18.81</v>
+      </c>
+      <c r="G135" t="n" s="0">
+        <v>18.81</v>
+      </c>
+      <c r="H135" t="n" s="0">
+        <v>18.81</v>
+      </c>
+      <c r="I135" t="n" s="0">
+        <v>18.81</v>
+      </c>
+      <c r="J135" t="n" s="0">
+        <v>18.81</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
@@ -2306,6 +2775,30 @@
       <c r="B165" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C165" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="D165" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="E165" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="F165" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="G165" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="H165" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="I165" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="J165" t="n" s="0">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
@@ -2322,6 +2815,30 @@
       <c r="B167" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C167" t="n" s="0">
+        <v>21.05</v>
+      </c>
+      <c r="D167" t="n" s="0">
+        <v>21.05</v>
+      </c>
+      <c r="E167" t="n" s="0">
+        <v>21.05</v>
+      </c>
+      <c r="F167" t="n" s="0">
+        <v>21.05</v>
+      </c>
+      <c r="G167" t="n" s="0">
+        <v>21.05</v>
+      </c>
+      <c r="H167" t="n" s="0">
+        <v>21.05</v>
+      </c>
+      <c r="I167" t="n" s="0">
+        <v>21.05</v>
+      </c>
+      <c r="J167" t="n" s="0">
+        <v>21.05</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
@@ -2349,7 +2866,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>201</v>
@@ -2357,23 +2874,23 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>172</v>
+      <c r="A173" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+      <c r="A174" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>201</v>
@@ -2381,7 +2898,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>201</v>
@@ -2389,7 +2906,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>201</v>
@@ -2397,7 +2914,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>201</v>
@@ -2405,7 +2922,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>201</v>
@@ -2413,7 +2930,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>201</v>
@@ -2421,7 +2938,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>201</v>
@@ -2429,7 +2946,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>201</v>
@@ -2437,15 +2954,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>182</v>
+      <c r="A183" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>201</v>
@@ -2453,23 +2970,23 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+      <c r="A185" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>185</v>
+      <c r="A186" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>201</v>
@@ -2477,15 +2994,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="A188" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>201</v>
@@ -2493,7 +3010,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>201</v>
@@ -2501,7 +3018,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>201</v>
@@ -2509,7 +3026,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>201</v>
@@ -2517,23 +3034,23 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>192</v>
+      <c r="A193" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+      <c r="A194" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>201</v>
@@ -2541,7 +3058,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>201</v>
@@ -2549,7 +3066,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>201</v>
@@ -2557,23 +3074,23 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>197</v>
+      <c r="A198" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
+      <c r="A199" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>201</v>
@@ -2581,17 +3098,9 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="7" t="s">
         <v>201</v>
       </c>
     </row>
